--- a/Scores/LOD.xlsx
+++ b/Scores/LOD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomhsiung/Reference/Scores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDD7E7C-4F4C-D844-9A72-E1BC3E638359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00017B6-83C4-AF41-838D-2D2036F7E836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17200" yWindow="2260" windowWidth="11840" windowHeight="11900" xr2:uid="{662023FA-49DD-1F44-8785-01C9F7A40D2D}"/>
+    <workbookView xWindow="15320" yWindow="2640" windowWidth="11840" windowHeight="11900" xr2:uid="{662023FA-49DD-1F44-8785-01C9F7A40D2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E07B93-FAE7-0740-B6BE-3863107CEA42}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,29 +449,29 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <f>POWER(D2, B2)*POWER((1-D2), C2)</f>
-        <v>9.2274469442792002E-3</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f>POWER(0.5, B2)*POWER((1-0.5), C2)</f>
-        <v>1.953125E-3</v>
-      </c>
-      <c r="G2">
+        <v>2.3283064365386963E-10</v>
+      </c>
+      <c r="G2" t="e">
         <f>LOG10(E2/F2)</f>
-        <v>0.67435151775623003</v>
+        <v>#NUM!</v>
       </c>
       <c r="H2">
         <f>E2/F2</f>
-        <v>4.7244528354709505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -479,29 +479,29 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E5" si="0">POWER(D3, B3)*POWER((1-D3), C3)</f>
-        <v>3.6754594531249997E-2</v>
+        <f>POWER(D3, B3)*POWER((1-D3), C3)</f>
+        <v>7.3970037338828018E-5</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F5" si="1">POWER(0.5, B3)*POWER((1-0.5), C3)</f>
-        <v>7.8125E-3</v>
+        <f>POWER(0.5, B3)*POWER((1-0.5), C3)</f>
+        <v>2.3283064365386963E-10</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G5" si="2">LOG10(E3/F3)</f>
-        <v>0.67252160571697372</v>
+        <f>LOG10(E3/F3)</f>
+        <v>5.5020156991738958</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H5" si="3">E3/F3</f>
-        <v>4.7045880999999996</v>
+        <f>E3/F3</f>
+        <v>317698.89125416521</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -509,29 +509,29 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>4.3046721000000017E-2</v>
+        <f t="shared" ref="E4:E6" si="0">POWER(D4, B4)*POWER((1-D4), C4)</f>
+        <v>5.3659690985734384E-4</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
-        <v>1.953125E-3</v>
+        <f t="shared" ref="F4:F6" si="1">POWER(0.5, B4)*POWER((1-0.5), C4)</f>
+        <v>2.3283064365386963E-10</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
-        <v>1.34321003649043</v>
+        <f t="shared" ref="G4:G6" si="2">LOG10(E4/F4)</f>
+        <v>6.3626080285848685</v>
       </c>
       <c r="H4">
-        <f t="shared" si="3"/>
-        <v>22.039921152000009</v>
+        <f t="shared" ref="H4:H6" si="3">E4/F4</f>
+        <v>2304666.1789719518</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -539,29 +539,29 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>3.355443200000003E-2</v>
+        <v>4.2391158275216273E-4</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>1.953125E-3</v>
+        <v>2.3283064365386963E-10</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>1.2350198525753611</v>
+        <v>6.2602351444271456</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
-        <v>17.179869184000015</v>
+        <v>1820686.3843161366</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -569,29 +569,29 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E8" si="4">POWER(D6, B6)*POWER((1-D6), C6)</f>
-        <v>1.7294402999999989E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.951760157141537E-5</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F8" si="5">POWER(0.5, B6)*POWER((1-0.5), C6)</f>
-        <v>1.953125E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.3283064365386963E-10</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G8" si="6">LOG10(E6/F6)</f>
-        <v>0.94717553580954761</v>
+        <f t="shared" si="2"/>
+        <v>5.3277194623336692</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H8" si="7">E6/F6</f>
-        <v>8.8547343359999946</v>
+        <f t="shared" si="3"/>
+        <v>212676.47932558722</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -599,29 +599,29 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E7">
-        <f t="shared" si="4"/>
-        <v>6.7184639999999995E-3</v>
+        <f t="shared" ref="E7:E9" si="4">POWER(D7, B7)*POWER((1-D7), C7)</f>
+        <v>2.0285406261622986E-6</v>
       </c>
       <c r="F7">
-        <f t="shared" si="5"/>
-        <v>1.953125E-3</v>
+        <f t="shared" ref="F7:F9" si="5">POWER(0.5, B7)*POWER((1-0.5), C7)</f>
+        <v>2.3283064365386963E-10</v>
       </c>
       <c r="G7">
-        <f t="shared" si="6"/>
-        <v>0.53653995537294219</v>
+        <f t="shared" ref="G7:G9" si="6">LOG10(E7/F7)</f>
+        <v>3.9401435711144273</v>
       </c>
       <c r="H7">
-        <f t="shared" si="7"/>
-        <v>3.4398535679999998</v>
+        <f t="shared" ref="H7:H9" si="7">E7/F7</f>
+        <v>8712.5156479744346</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -629,27 +629,57 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E8">
         <f t="shared" si="4"/>
-        <v>1.953125E-3</v>
+        <v>3.5371827155317323E-8</v>
       </c>
       <c r="F8">
         <f t="shared" si="5"/>
-        <v>1.953125E-3</v>
+        <v>2.3283064365386963E-10</v>
       </c>
       <c r="G8">
         <f t="shared" si="6"/>
+        <v>2.1816173554126319</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="7"/>
+        <v>151.92084083185262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>2.3283064365386963E-10</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="5"/>
+        <v>2.3283064365386963E-10</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>

--- a/Scores/LOD.xlsx
+++ b/Scores/LOD.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomhsiung/Reference/Scores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00017B6-83C4-AF41-838D-2D2036F7E836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9512842C-02D2-3A4A-82B5-4904D1CFD30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15320" yWindow="2640" windowWidth="11840" windowHeight="11900" xr2:uid="{662023FA-49DD-1F44-8785-01C9F7A40D2D}"/>
+    <workbookView xWindow="24580" yWindow="5960" windowWidth="11840" windowHeight="11900" xr2:uid="{662023FA-49DD-1F44-8785-01C9F7A40D2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
